--- a/biology/Histoire de la zoologie et de la botanique/Karel_Brančik/Karel_Brančik.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karel_Brančik/Karel_Brančik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karel_Bran%C4%8Dik</t>
+          <t>Karel_Brančik</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karel (ou Karol ou Karl ou Carolus) Brančik (en hongrois Brancsik Károly) est un médecin et un naturaliste hongrois, né le 13 mars 1842 à Óbeszterce et mort le 18 novembre 1915 à Trencsén.
 Il exerce la médecine à Trencsén et s’intéresse à l’entomologie, la malacologie et la botanique. Il fonde en 1913 le muséum de Trencsén. Il constitue une riche collection de coléoptères qui sera acquise par l’entomologiste viennois Eduard Knirsch (1869-1955) avant d’être reçue par le Field Museum of Natural History de Chicago.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karel_Bran%C4%8Dik</t>
+          <t>Karel_Brančik</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.
 Guido Nonveiller (2001). Pioneers of the Research on the Insects of Dalmatia.  Croatian Natural History Museum (Zagreb) : 390 p.</t>
